--- a/data/trans_dic/P55$enfermera-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P55$enfermera-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1459,7 +1460,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,52</t>
+          <t>0,0; 4,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1480,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,39</t>
+          <t>0,0; 2,32</t>
         </is>
       </c>
     </row>
@@ -1579,12 +1580,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,81</t>
+          <t>0,0; 2,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,45</t>
+          <t>0,0; 3,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1594,17 +1595,17 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,76</t>
+          <t>0,0; 3,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,92</t>
+          <t>0,17; 1,67</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,64</t>
+          <t>0,0; 2,28</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -1614,12 +1615,12 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,44</t>
+          <t>0,0; 2,46</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,57</t>
+          <t>0,28; 1,52</t>
         </is>
       </c>
     </row>
@@ -1719,12 +1720,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,31</t>
+          <t>0,0; 2,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,43</t>
+          <t>0,0; 2,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1734,17 +1735,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,99</t>
+          <t>0,0; 2,83</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,58</t>
+          <t>0,22; 1,6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,58</t>
+          <t>0,0; 1,79</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -1754,12 +1755,12 @@
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,74</t>
+          <t>0,0; 1,75</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,29</t>
+          <t>0,26; 1,41</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda la enfermería del Centro de Salud cuando tiene dificultades en la actividades instrumentales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1857</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2020</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1868</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1164</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1751</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1963</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2043</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2970</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1809</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2007</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2014</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2862</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>934</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1347</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1639</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1347</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>2574</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1766</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2193</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1630</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 3025</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5671</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2119</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6854</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>434; 4261</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5664</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2152</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6774</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1024; 5503</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>934</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1347</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>2227</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>1347</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>3162</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1811</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2156</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1700</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>0; 3342</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>0; 5846</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2087</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>0; 7576</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>732; 5259</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>0; 6410</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2117</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>0; 6797</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>1238; 6833</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>